--- a/Financial_Hub.xlsx
+++ b/Financial_Hub.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Cost_Living_Plus_Tax_Ratio</t>
+          <t>Financial_Comfort_Index</t>
         </is>
       </c>
     </row>

--- a/Financial_Hub.xlsx
+++ b/Financial_Hub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Area_Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Area_Name</t>
+          <t>State</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Total_Tax</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cost_Living</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Financial_Comfort_Index</t>
         </is>
@@ -458,1121 +463,1177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Albuquerque, NM (00-10740)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albuquerque, NM (00-10740)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>NM</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>5008</v>
+      </c>
       <c r="D2" t="n">
-        <v>5.617681150835891</v>
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Atlanta-Sandy Springs-Roswell, GA (00-12060)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell, GA (00-12060)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>GA</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>19723</v>
+      </c>
       <c r="D3" t="n">
-        <v>6.165646088395317</v>
+        <v>100.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Austin-Round Rock, TX (00-12420)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Austin-Round Rock, TX (00-12420)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>TX</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>51081</v>
+      </c>
       <c r="D4" t="n">
-        <v>4.978857490477003</v>
+        <v>106.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>61741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baltimore</t>
+          <t>Baltimore-Columbia-Towson, MD (00-12580)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson, MD (00-12580)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>MD</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>19238</v>
+      </c>
       <c r="D5" t="n">
-        <v>6.878704817432418</v>
+        <v>107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boise City</t>
+          <t>Boise City, ID (00-14260)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boise City, ID (00-14260)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>ID</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>3969</v>
+      </c>
       <c r="D6" t="n">
-        <v>5.401789268384628</v>
+        <v>100.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Boston-Cambridge-Nashua, MA-NH (00-71650)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Nashua, MA-NH (00-71650)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>MA</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>26211</v>
+      </c>
       <c r="D7" t="n">
-        <v>5.713098016053147</v>
+        <v>132.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Buffalo-Cheektowaga-Niagara Falls, NY (00-15380)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Buffalo-Cheektowaga-Niagara Falls, NY (00-15380)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>NY</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>74532</v>
+      </c>
       <c r="D8" t="n">
-        <v>4.600186685244166</v>
+        <v>97.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>84262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Charleston, WV (00-16620)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Charleston, WV (00-16620)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>WV</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>4886</v>
+      </c>
       <c r="D9" t="n">
-        <v>5.306621636602529</v>
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Charleston-North Charleston, SC (00-16700)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Charleston-North Charleston, SC (00-16700)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>9561</v>
+      </c>
       <c r="D10" t="n">
-        <v>7.038315558870105</v>
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Charlotte-Concord-Gastonia, NC-SC (00-16740)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia, NC-SC (00-16740)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>NC</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>24994</v>
+      </c>
       <c r="D11" t="n">
-        <v>6.853666911613088</v>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Charlottesville, VA (00-16820)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Charlottesville, VA (00-16820)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>VA</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>20079</v>
+      </c>
       <c r="D12" t="n">
-        <v>6.477902462714288</v>
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Chicago-Naperville-Elgin, IL-IN-WI (00-16980)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chicago-Naperville-Elgin, IL-IN-WI (00-16980)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>IL</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>38862</v>
+      </c>
       <c r="D13" t="n">
-        <v>5.854697727804111</v>
+        <v>100.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Cleveland, TN (00-17420)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cleveland, TN (00-17420)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>TN</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>12402</v>
+      </c>
       <c r="D14" t="n">
-        <v>4.646740352346071</v>
+        <v>89.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Cleveland-Elyria, OH (00-17460)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cleveland-Elyria, OH (00-17460)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>OH</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>28271</v>
+      </c>
       <c r="D15" t="n">
-        <v>5.944938217721912</v>
+        <v>89.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>37221</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Colorado Springs, CO (00-17820)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Colorado Springs, CO (00-17820)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>CO</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>12518</v>
+      </c>
       <c r="D16" t="n">
-        <v>6.910245817326187</v>
+        <v>102.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Columbus, GA-AL (00-17980)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Columbus, GA-AL (00-17980)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>AL</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>9637</v>
+      </c>
       <c r="D17" t="n">
-        <v>6.346960373577158</v>
+        <v>88.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18487</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Columbus, IN (00-18020)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Columbus, IN (00-18020)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>IN</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>17393</v>
+      </c>
       <c r="D18" t="n">
-        <v>5.784955255429013</v>
+        <v>88.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Columbus, OH (00-18140)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Columbus, OH (00-18140)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>OH</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>28271</v>
+      </c>
       <c r="D19" t="n">
-        <v>6.183257951068359</v>
+        <v>88.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Dallas-Fort Worth-Arlington, TX (00-19100)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington, TX (00-19100)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>TX</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>51081</v>
+      </c>
       <c r="D20" t="n">
-        <v>5.740333955888987</v>
+        <v>98.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>60931</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Denver-Aurora-Lakewood, CO (00-19740)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Lakewood, CO (00-19740)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>CO</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>12518</v>
+      </c>
       <c r="D21" t="n">
-        <v>6.536805227407803</v>
+        <v>112.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Des Moines</t>
+          <t>Des Moines-West Des Moines, IA (00-19780)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Des Moines-West Des Moines, IA (00-19780)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>IA</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>9081</v>
+      </c>
       <c r="D22" t="n">
-        <v>6.545618761932477</v>
+        <v>91.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Detroit-Warren-Dearborn, MI (00-19820)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn, MI (00-19820)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>MI</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>26662</v>
+      </c>
       <c r="D23" t="n">
-        <v>6.358678932332548</v>
+        <v>93.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>35982</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hartford</t>
+          <t>Hartford-West Hartford-East Hartford, CT (00-73450)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford, CT (00-73450)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>CT</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>15887</v>
+      </c>
       <c r="D24" t="n">
-        <v>6.53083958817767</v>
+        <v>104.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>26367</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Houston-The Woodlands-Sugar Land, TX (00-26420)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Houston-The Woodlands-Sugar Land, TX (00-26420)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>TX</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>51081</v>
+      </c>
       <c r="D25" t="n">
-        <v>5.085546584415894</v>
+        <v>95.8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>60661</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Huntsville, AL (00-26620)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Huntsville, AL (00-26620)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>AL</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>9637</v>
+      </c>
       <c r="D26" t="n">
-        <v>7.50538744372188</v>
+        <v>91.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>18767</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Indianapolis-Carmel-Anderson, IN (00-26900)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Anderson, IN (00-26900)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>IN</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>17393</v>
+      </c>
       <c r="D27" t="n">
-        <v>6.027804269786235</v>
+        <v>90.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>26473</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Kansas City, MO-KS (00-28140)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kansas City, MO-KS (00-28140)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>KS</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>7736</v>
+      </c>
       <c r="D28" t="n">
-        <v>6.165611315874409</v>
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16896</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Las Vegas-Henderson-Paradise, NV (00-29820)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-Paradise, NV (00-29820)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>NV</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>6930</v>
+      </c>
       <c r="D29" t="n">
-        <v>4.916428748758689</v>
+        <v>100.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>17000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Los Angeles-Long Beach-Anaheim, CA (00-31080)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Los Angeles-Long Beach-Anaheim, CA (00-31080)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>CA</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>151022</v>
+      </c>
       <c r="D30" t="n">
-        <v>2.7721701912075</v>
+        <v>140.6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>165082</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Memphis, TN-MS-AR (00-32820)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Memphis, TN-MS-AR (00-32820)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>AR</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>9023</v>
+      </c>
       <c r="D31" t="n">
-        <v>5.792178896907306</v>
+        <v>88.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>17843</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach, FL (00-33100)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach, FL (00-33100)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>FL</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>34713.07</v>
+      </c>
       <c r="D32" t="n">
-        <v>4.475577963371116</v>
+        <v>110.1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>45723.07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Milwaukee-Waukesha-West Allis, WI (00-33340)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha-West Allis, WI (00-33340)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>WI</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>16941</v>
+      </c>
       <c r="D33" t="n">
-        <v>6.061902672569814</v>
+        <v>93.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>26321</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bloomington</t>
+          <t>Minneapolis-St. Paul-Bloomington, MN-WI (00-33460)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Minneapolis-St. Paul-Bloomington, MN-WI (00-33460)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>MN</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>24031</v>
+      </c>
       <c r="D34" t="n">
-        <v>7.280524989742243</v>
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>33271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin, TN (00-34980)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin, TN (00-34980)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>TN</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>12402</v>
+      </c>
       <c r="D35" t="n">
-        <v>5.335024829578618</v>
+        <v>100.1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22412</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>New Orleans-Metairie, LA (00-35380)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>New Orleans-Metairie, LA (00-35380)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>LA</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>8988</v>
+      </c>
       <c r="D36" t="n">
-        <v>5.741694488897878</v>
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>18228</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>New York-Newark-Jersey City, NY-NJ-PA (00-35620)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>New York-Newark-Jersey City, NY-NJ-PA (00-35620)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>NJ</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>30339</v>
+      </c>
       <c r="D37" t="n">
-        <v>5.407225853990326</v>
+        <v>128</v>
+      </c>
+      <c r="E37" t="n">
+        <v>43139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Oklahoma City, OK (00-36420)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Oklahoma City, OK (00-36420)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>OK</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>8833</v>
+      </c>
       <c r="D38" t="n">
-        <v>5.853740444475822</v>
+        <v>87.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>17563</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Omaha-Council Bluffs, NE-IA (00-36540)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Omaha-Council Bluffs, NE-IA (00-36540)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
           <t>IA</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>9081</v>
+      </c>
       <c r="D39" t="n">
-        <v>6.345209582039976</v>
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>18371</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Orlando-Kissimmee-Sanford, FL (00-36740)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford, FL (00-36740)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>FL</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>34713.07</v>
+      </c>
       <c r="D40" t="n">
-        <v>4.979492519541238</v>
+        <v>101.4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>44853.07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD (00-37980)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD (00-37980)</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>DE</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>3430</v>
+      </c>
       <c r="D41" t="n">
-        <v>6.212041887943302</v>
+        <v>103.4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13770</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Phoenix-Mesa-Scottsdale, AZ (00-38060)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Scottsdale, AZ (00-38060)</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>AZ</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>14040</v>
+      </c>
       <c r="D42" t="n">
-        <v>5.503169581501973</v>
+        <v>104.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>24470</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Pittsburgh, PA (00-38300)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA (00-38300)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>PA</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>34633</v>
+      </c>
       <c r="D43" t="n">
-        <v>5.324852875292947</v>
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>43943</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Portland-South Portland, ME (00-76750)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Portland-South Portland, ME (00-76750)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>ME</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>4006</v>
+      </c>
       <c r="D44" t="n">
-        <v>5.30971590217921</v>
+        <v>113</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Portland-Vancouver-Hillsboro, OR-WA (00-38900)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro, OR-WA (00-38900)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>OR</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>10437</v>
+      </c>
       <c r="D45" t="n">
-        <v>5.911396323791516</v>
+        <v>113</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21737</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Providence-Warwick, RI-MA (00-77200)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Providence-Warwick, RI-MA (00-77200)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
           <t>MA</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>26211</v>
+      </c>
       <c r="D46" t="n">
-        <v>5.718443075420731</v>
+        <v>111.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>37361</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Raleigh</t>
+          <t>Raleigh, NC (00-39580)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Raleigh, NC (00-39580)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
           <t>NC</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>24994</v>
+      </c>
       <c r="D47" t="n">
-        <v>6.680341566356828</v>
+        <v>99.7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>34964</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Sacramento--Roseville--Arden-Arcade, CA (00-40900)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sacramento--Roseville--Arden-Arcade, CA (00-40900)</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
           <t>CA</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>151022</v>
+      </c>
       <c r="D48" t="n">
-        <v>3.692062760891046</v>
+        <v>120.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>163052</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lake City</t>
+          <t>Salt Lake City, UT (00-41620)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT (00-41620)</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
           <t>UT</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>6573</v>
+      </c>
       <c r="D49" t="n">
-        <v>6.192012023757786</v>
+        <v>93.59999999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15933</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>San Antonio-New Braunfels, TX (00-41700)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels, TX (00-41700)</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
           <t>TX</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>51081</v>
+      </c>
       <c r="D50" t="n">
-        <v>5.121380879266929</v>
+        <v>92.7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>60351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>San Diego-Carlsbad, CA (00-41740)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>San Diego-Carlsbad, CA (00-41740)</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
           <t>CA</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>151022</v>
+      </c>
       <c r="D51" t="n">
-        <v>3.258877099975888</v>
+        <v>136.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>164642</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Francisco-Oakland-Hayward, CA (00-41860)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Hayward, CA (00-41860)</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
           <t>CA</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>151022</v>
+      </c>
       <c r="D52" t="n">
-        <v>3.898678349125944</v>
+        <v>178.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>168882</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Jose-Sunnyvale-Santa Clara, CA (00-41940)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara, CA (00-41940)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
           <t>CA</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>151022</v>
+      </c>
       <c r="D53" t="n">
-        <v>5.845959326488297</v>
+        <v>173.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>168372</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Seattle-Tacoma-Bellevue, WA (00-42660)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue, WA (00-42660)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
           <t>WA</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>19656</v>
+      </c>
       <c r="D54" t="n">
-        <v>6.79576128836627</v>
+        <v>124.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>32116</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>St. Louis, MO-IL (00-41180)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>St. Louis, MO-IL (00-41180)</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>IL</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>38862</v>
+      </c>
       <c r="D55" t="n">
-        <v>5.213277540241449</v>
+        <v>89.59999999999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>47822</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Trenton</t>
+          <t>Trenton, NJ (00-45940)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Trenton, NJ (00-45940)</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
           <t>NJ</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>30339</v>
+      </c>
       <c r="D56" t="n">
-        <v>6.251961765662298</v>
+        <v>104.3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>40769</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Washington DC-Arlington-Alexandria, DC-VA-MD-WV (00-47900)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Washington DC-Arlington-Alexandria, DC-VA-MD-WV (00-47900)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
           <t>MD</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>19238</v>
+      </c>
       <c r="D57" t="n">
-        <v>9.42727945939717</v>
+        <v>86.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>27858</v>
       </c>
     </row>
   </sheetData>

--- a/Financial_Hub.xlsx
+++ b/Financial_Hub.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Financial_Comfort_Index</t>
+          <t>Financial_Stress_Index</t>
         </is>
       </c>
     </row>

--- a/Financial_Hub.xlsx
+++ b/Financial_Hub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Entry_Level_Tech_Wage</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total_Tax</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cost_Living</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Financial_Stress_Index</t>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Financial_Comfort_Index</t>
         </is>
       </c>
     </row>
@@ -466,19 +471,22 @@
           <t>Albuquerque, NM (00-10740)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>53065</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5008</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="E2" t="n">
-        <v>14298</v>
+      <c r="F2" t="n">
+        <v>3.711358231920548</v>
       </c>
     </row>
     <row r="3">
@@ -487,19 +495,22 @@
           <t>Atlanta-Sandy Springs-Roswell, GA (00-12060)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>64890</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>19723</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>100.3</v>
       </c>
-      <c r="E3" t="n">
-        <v>29753</v>
+      <c r="F3" t="n">
+        <v>2.180956542197425</v>
       </c>
     </row>
     <row r="4">
@@ -508,19 +519,22 @@
           <t>Austin-Round Rock, TX (00-12420)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>61875</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>51081</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>106.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>61741</v>
+      <c r="F4" t="n">
+        <v>1.002170356813139</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +543,22 @@
           <t>Baltimore-Columbia-Towson, MD (00-12580)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>76300</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>19238</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>107</v>
       </c>
-      <c r="E5" t="n">
-        <v>29938</v>
+      <c r="F5" t="n">
+        <v>2.548600440911216</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +567,22 @@
           <t>Boise City, ID (00-14260)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>54905</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3969</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>100.3</v>
       </c>
-      <c r="E6" t="n">
-        <v>13999</v>
+      <c r="F6" t="n">
+        <v>3.922065861847275</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +591,22 @@
           <t>Boston-Cambridge-Nashua, MA-NH (00-71650)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>80095</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>26211</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>132.6</v>
       </c>
-      <c r="E7" t="n">
-        <v>39471</v>
+      <c r="F7" t="n">
+        <v>2.029211319703073</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +615,22 @@
           <t>Buffalo-Cheektowaga-Niagara Falls, NY (00-15380)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>57395</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>74532</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>97.3</v>
       </c>
-      <c r="E8" t="n">
-        <v>84262</v>
+      <c r="F8" t="n">
+        <v>0.6811492725071799</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +639,22 @@
           <t>Charleston, WV (00-16620)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>WV</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>4886</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="E9" t="n">
-        <v>13276</v>
+      <c r="F9" t="n">
+        <v>3.421587827658934</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +663,22 @@
           <t>Charleston-North Charleston, SC (00-16700)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>60380</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>9561</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="E10" t="n">
-        <v>17951</v>
+      <c r="F10" t="n">
+        <v>3.363600913598128</v>
       </c>
     </row>
     <row r="11">
@@ -655,19 +687,22 @@
           <t>Charlotte-Concord-Gastonia, NC-SC (00-16740)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>70565</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>24994</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="E11" t="n">
-        <v>34784</v>
+      <c r="F11" t="n">
+        <v>2.02866260349586</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +711,22 @@
           <t>Charlottesville, VA (00-16820)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>66380</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>20079</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="E12" t="n">
-        <v>29869</v>
+      <c r="F12" t="n">
+        <v>2.222371020121196</v>
       </c>
     </row>
     <row r="13">
@@ -697,19 +735,22 @@
           <t>Chicago-Naperville-Elgin, IL-IN-WI (00-16980)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>64625</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>38862</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>100.1</v>
       </c>
-      <c r="E13" t="n">
-        <v>48872</v>
+      <c r="F13" t="n">
+        <v>1.32233180553282</v>
       </c>
     </row>
     <row r="14">
@@ -718,19 +759,22 @@
           <t>Cleveland, TN (00-17420)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>12402</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>89.5</v>
       </c>
-      <c r="E14" t="n">
-        <v>21352</v>
+      <c r="F14" t="n">
+        <v>2.065614462345448</v>
       </c>
     </row>
     <row r="15">
@@ -739,19 +783,22 @@
           <t>Cleveland-Elyria, OH (00-17460)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>57600</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>OH</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>28271</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>89.5</v>
       </c>
-      <c r="E15" t="n">
-        <v>37221</v>
+      <c r="F15" t="n">
+        <v>1.547513500443298</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +807,22 @@
           <t>Colorado Springs, CO (00-17820)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>72390</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>12518</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>102.2</v>
       </c>
-      <c r="E16" t="n">
-        <v>22738</v>
+      <c r="F16" t="n">
+        <v>3.183657313747911</v>
       </c>
     </row>
     <row r="17">
@@ -781,19 +831,22 @@
           <t>Columbus, GA-AL (00-17980)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>57650</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>9637</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>88.5</v>
       </c>
-      <c r="E17" t="n">
-        <v>18487</v>
+      <c r="F17" t="n">
+        <v>3.118407529615405</v>
       </c>
     </row>
     <row r="18">
@@ -802,19 +855,22 @@
           <t>Columbus, IN (00-18020)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>54045</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>17393</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>88.5</v>
       </c>
-      <c r="E18" t="n">
-        <v>26243</v>
+      <c r="F18" t="n">
+        <v>2.059406317875243</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +879,22 @@
           <t>Columbus, OH (00-18140)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>58965</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>OH</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>28271</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>88.5</v>
       </c>
-      <c r="E19" t="n">
-        <v>37121</v>
+      <c r="F19" t="n">
+        <v>1.58845397483904</v>
       </c>
     </row>
     <row r="20">
@@ -844,19 +903,22 @@
           <t>Dallas-Fort Worth-Arlington, TX (00-19100)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>64360</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>51081</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>98.5</v>
       </c>
-      <c r="E20" t="n">
-        <v>60931</v>
+      <c r="F20" t="n">
+        <v>1.056276772086459</v>
       </c>
     </row>
     <row r="21">
@@ -865,19 +927,22 @@
           <t>Denver-Aurora-Lakewood, CO (00-19740)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>75145</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>12518</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>112.1</v>
       </c>
-      <c r="E21" t="n">
-        <v>23728</v>
+      <c r="F21" t="n">
+        <v>3.166933580579906</v>
       </c>
     </row>
     <row r="22">
@@ -886,19 +951,22 @@
           <t>Des Moines-West Des Moines, IA (00-19780)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>61380</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>IA</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>9081</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>91.7</v>
       </c>
-      <c r="E22" t="n">
-        <v>18251</v>
+      <c r="F22" t="n">
+        <v>3.363103391594981</v>
       </c>
     </row>
     <row r="23">
@@ -907,19 +975,22 @@
           <t>Detroit-Warren-Dearborn, MI (00-19820)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>63195</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>26662</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>93.2</v>
       </c>
-      <c r="E23" t="n">
-        <v>35982</v>
+      <c r="F23" t="n">
+        <v>1.756294814073704</v>
       </c>
     </row>
     <row r="24">
@@ -928,19 +999,22 @@
           <t>Hartford-West Hartford-East Hartford, CT (00-73450)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>70795</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>15887</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>104.8</v>
       </c>
-      <c r="E24" t="n">
-        <v>26367</v>
+      <c r="F24" t="n">
+        <v>2.684985019152729</v>
       </c>
     </row>
     <row r="25">
@@ -949,19 +1023,22 @@
           <t>Houston-The Woodlands-Sugar Land, TX (00-26420)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>57265</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>51081</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>95.8</v>
       </c>
-      <c r="E25" t="n">
-        <v>60661</v>
+      <c r="F25" t="n">
+        <v>0.9440167488171972</v>
       </c>
     </row>
     <row r="26">
@@ -970,19 +1047,22 @@
           <t>Huntsville, AL (00-26620)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>69785</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>9637</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>91.3</v>
       </c>
-      <c r="E26" t="n">
-        <v>18767</v>
+      <c r="F26" t="n">
+        <v>3.718495230990568</v>
       </c>
     </row>
     <row r="27">
@@ -991,19 +1071,22 @@
           <t>Indianapolis-Carmel-Anderson, IN (00-26900)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>57480</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>17393</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>90.8</v>
       </c>
-      <c r="E27" t="n">
-        <v>26473</v>
+      <c r="F27" t="n">
+        <v>2.171268839950138</v>
       </c>
     </row>
     <row r="28">
@@ -1012,19 +1095,22 @@
           <t>Kansas City, MO-KS (00-28140)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>57705</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>7736</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>91.59999999999999</v>
       </c>
-      <c r="E28" t="n">
-        <v>16896</v>
+      <c r="F28" t="n">
+        <v>3.415305397727273</v>
       </c>
     </row>
     <row r="29">
@@ -1033,19 +1119,22 @@
           <t>Las Vegas-Henderson-Paradise, NV (00-29820)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>50880</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>6930</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>100.7</v>
       </c>
-      <c r="E29" t="n">
-        <v>17000</v>
+      <c r="F29" t="n">
+        <v>2.992941176470588</v>
       </c>
     </row>
     <row r="30">
@@ -1054,19 +1143,22 @@
           <t>Los Angeles-Long Beach-Anaheim, CA (00-31080)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>69520</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>151022</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>140.6</v>
       </c>
-      <c r="E30" t="n">
-        <v>165082</v>
+      <c r="F30" t="n">
+        <v>0.4211240474430889</v>
       </c>
     </row>
     <row r="31">
@@ -1075,19 +1167,22 @@
           <t>Memphis, TN-MS-AR (00-32820)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>52600</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>9023</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>88.2</v>
       </c>
-      <c r="E31" t="n">
-        <v>17843</v>
+      <c r="F31" t="n">
+        <v>2.947934764333352</v>
       </c>
     </row>
     <row r="32">
@@ -1096,19 +1191,22 @@
           <t>Miami-Fort Lauderdale-West Palm Beach, FL (00-33100)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>56090</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>34713.07</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>110.1</v>
       </c>
-      <c r="E32" t="n">
-        <v>45723.07</v>
+      <c r="F32" t="n">
+        <v>1.226733025582053</v>
       </c>
     </row>
     <row r="33">
@@ -1117,19 +1215,22 @@
           <t>Milwaukee-Waukesha-West Allis, WI (00-33340)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>59530</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>WI</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>16941</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>93.8</v>
       </c>
-      <c r="E33" t="n">
-        <v>26321</v>
+      <c r="F33" t="n">
+        <v>2.261692184947381</v>
       </c>
     </row>
     <row r="34">
@@ -1138,19 +1239,22 @@
           <t>Minneapolis-St. Paul-Bloomington, MN-WI (00-33460)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>70425</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>MN</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>24031</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="E34" t="n">
-        <v>33271</v>
+      <c r="F34" t="n">
+        <v>2.11670824441706</v>
       </c>
     </row>
     <row r="35">
@@ -1159,19 +1263,22 @@
           <t>Nashville-Davidson--Murfreesboro--Franklin, TN (00-34980)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>55635</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>12402</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>100.1</v>
       </c>
-      <c r="E35" t="n">
-        <v>22412</v>
+      <c r="F35" t="n">
+        <v>2.482375513117972</v>
       </c>
     </row>
     <row r="36">
@@ -1180,19 +1287,22 @@
           <t>New Orleans-Metairie, LA (00-35380)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>54575</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>LA</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>8988</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="E36" t="n">
-        <v>18228</v>
+      <c r="F36" t="n">
+        <v>2.99402018872065</v>
       </c>
     </row>
     <row r="37">
@@ -1201,19 +1311,22 @@
           <t>New York-Newark-Jersey City, NY-NJ-PA (00-35620)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>74430</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>NJ</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>30339</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>128</v>
       </c>
-      <c r="E37" t="n">
-        <v>43139</v>
+      <c r="F37" t="n">
+        <v>1.72535292890424</v>
       </c>
     </row>
     <row r="38">
@@ -1222,19 +1335,22 @@
           <t>Oklahoma City, OK (00-36420)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>52570</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>8833</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>87.3</v>
       </c>
-      <c r="E38" t="n">
-        <v>17563</v>
+      <c r="F38" t="n">
+        <v>2.993224392188123</v>
       </c>
     </row>
     <row r="39">
@@ -1243,19 +1359,22 @@
           <t>Omaha-Council Bluffs, NE-IA (00-36540)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>60345</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>IA</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>9081</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="E39" t="n">
-        <v>18371</v>
+      <c r="F39" t="n">
+        <v>3.284796690436013</v>
       </c>
     </row>
     <row r="40">
@@ -1264,19 +1383,22 @@
           <t>Orlando-Kissimmee-Sanford, FL (00-36740)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>34713.07</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>101.4</v>
       </c>
-      <c r="E40" t="n">
-        <v>44853.07</v>
+      <c r="F40" t="n">
+        <v>1.264127516800968</v>
       </c>
     </row>
     <row r="41">
@@ -1285,19 +1407,22 @@
           <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD (00-37980)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>64780</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>3430</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>103.4</v>
       </c>
-      <c r="E41" t="n">
-        <v>13770</v>
+      <c r="F41" t="n">
+        <v>4.704429920116195</v>
       </c>
     </row>
     <row r="42">
@@ -1306,19 +1431,22 @@
           <t>Phoenix-Mesa-Scottsdale, AZ (00-38060)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>59845</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>AZ</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>14040</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>104.3</v>
       </c>
-      <c r="E42" t="n">
-        <v>24470</v>
+      <c r="F42" t="n">
+        <v>2.445647731916633</v>
       </c>
     </row>
     <row r="43">
@@ -1327,19 +1455,22 @@
           <t>Pittsburgh, PA (00-38300)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>55395</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>34633</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="E43" t="n">
-        <v>43943</v>
+      <c r="F43" t="n">
+        <v>1.260610336117243</v>
       </c>
     </row>
     <row r="44">
@@ -1348,19 +1479,22 @@
           <t>Portland-South Portland, ME (00-76750)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>60745</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>ME</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>4006</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>113</v>
       </c>
-      <c r="E44" t="n">
-        <v>15306</v>
+      <c r="F44" t="n">
+        <v>3.968705082973997</v>
       </c>
     </row>
     <row r="45">
@@ -1369,19 +1503,22 @@
           <t>Portland-Vancouver-Hillsboro, OR-WA (00-38900)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>68520</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>OR</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>10437</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>113</v>
       </c>
-      <c r="E45" t="n">
-        <v>21737</v>
+      <c r="F45" t="n">
+        <v>3.152228918434007</v>
       </c>
     </row>
     <row r="46">
@@ -1390,19 +1527,22 @@
           <t>Providence-Warwick, RI-MA (00-77200)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>68055</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>26211</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>111.5</v>
       </c>
-      <c r="E46" t="n">
-        <v>37361</v>
+      <c r="F46" t="n">
+        <v>1.821551885656165</v>
       </c>
     </row>
     <row r="47">
@@ -1411,19 +1551,22 @@
           <t>Raleigh, NC (00-39580)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>70155</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>24994</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>99.7</v>
       </c>
-      <c r="E47" t="n">
-        <v>34964</v>
+      <c r="F47" t="n">
+        <v>2.006492392174808</v>
       </c>
     </row>
     <row r="48">
@@ -1432,19 +1575,22 @@
           <t>Sacramento--Roseville--Arden-Arcade, CA (00-40900)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>70270</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>151022</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>120.3</v>
       </c>
-      <c r="E48" t="n">
-        <v>163052</v>
+      <c r="F48" t="n">
+        <v>0.4309668081348281</v>
       </c>
     </row>
     <row r="49">
@@ -1453,19 +1599,22 @@
           <t>Salt Lake City, UT (00-41620)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>UT</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>6573</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>93.59999999999999</v>
       </c>
-      <c r="E49" t="n">
-        <v>15933</v>
+      <c r="F49" t="n">
+        <v>3.70300633904475</v>
       </c>
     </row>
     <row r="50">
@@ -1474,19 +1623,22 @@
           <t>San Antonio-New Braunfels, TX (00-41700)</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>55940</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>TX</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>51081</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>92.7</v>
       </c>
-      <c r="E50" t="n">
-        <v>60351</v>
+      <c r="F50" t="n">
+        <v>0.9269109045417641</v>
       </c>
     </row>
     <row r="51">
@@ -1495,19 +1647,22 @@
           <t>San Diego-Carlsbad, CA (00-41740)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>72685</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>151022</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>136.2</v>
       </c>
-      <c r="E51" t="n">
-        <v>164642</v>
+      <c r="F51" t="n">
+        <v>0.4414730141762127</v>
       </c>
     </row>
     <row r="52">
@@ -1516,19 +1671,22 @@
           <t>San Francisco-Oakland-Hayward, CA (00-41860)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>97340</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>151022</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>178.6</v>
       </c>
-      <c r="E52" t="n">
-        <v>168882</v>
+      <c r="F52" t="n">
+        <v>0.5763787733447022</v>
       </c>
     </row>
     <row r="53">
@@ -1537,19 +1695,22 @@
           <t>San Jose-Sunnyvale-Santa Clara, CA (00-41940)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>122770</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>151022</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>173.5</v>
       </c>
-      <c r="E53" t="n">
-        <v>168372</v>
+      <c r="F53" t="n">
+        <v>0.7291592426294158</v>
       </c>
     </row>
     <row r="54">
@@ -1558,19 +1719,22 @@
           <t>Seattle-Tacoma-Bellevue, WA (00-42660)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>87475</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>19656</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>124.6</v>
       </c>
-      <c r="E54" t="n">
-        <v>32116</v>
+      <c r="F54" t="n">
+        <v>2.723720264042845</v>
       </c>
     </row>
     <row r="55">
@@ -1579,19 +1743,22 @@
           <t>St. Louis, MO-IL (00-41180)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53250</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>38862</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="E55" t="n">
-        <v>47822</v>
+      <c r="F55" t="n">
+        <v>1.113504244908201</v>
       </c>
     </row>
     <row r="56">
@@ -1600,19 +1767,22 @@
           <t>Trenton, NJ (00-45940)</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>69745</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>NJ</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>30339</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>104.3</v>
       </c>
-      <c r="E56" t="n">
-        <v>40769</v>
+      <c r="F56" t="n">
+        <v>1.710736098506218</v>
       </c>
     </row>
     <row r="57">
@@ -1621,19 +1791,22 @@
           <t>Washington DC-Arlington-Alexandria, DC-VA-MD-WV (00-47900)</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>83255</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>19238</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>86.2</v>
       </c>
-      <c r="E57" t="n">
-        <v>27858</v>
+      <c r="F57" t="n">
+        <v>2.988549070285017</v>
       </c>
     </row>
   </sheetData>
